--- a/results_final/sigma_ML.xlsx
+++ b/results_final/sigma_ML.xlsx
@@ -519,91 +519,91 @@
         <v>0.3905760977195454</v>
       </c>
       <c r="D2">
-        <v>0.3131014368485828</v>
+        <v>0.313120636617146</v>
       </c>
       <c r="E2">
-        <v>0.2565224526029301</v>
+        <v>0.25656895408467</v>
       </c>
       <c r="F2">
-        <v>0.2143297780457624</v>
+        <v>0.2144063539444325</v>
       </c>
       <c r="G2">
-        <v>0.1822664437938637</v>
+        <v>0.1823734063202525</v>
       </c>
       <c r="H2">
-        <v>0.1574828315078765</v>
+        <v>0.15761946081789</v>
       </c>
       <c r="I2">
-        <v>0.1380300556788731</v>
+        <v>0.1381953029082517</v>
       </c>
       <c r="J2">
-        <v>0.1225486517668932</v>
+        <v>0.1227414737226887</v>
       </c>
       <c r="K2">
-        <v>0.1100728565067029</v>
+        <v>0.1102923631730862</v>
       </c>
       <c r="L2">
-        <v>0.09990492413658215</v>
+        <v>0.1001504319714023</v>
       </c>
       <c r="M2">
-        <v>0.09153281188819717</v>
+        <v>0.09180385094202283</v>
       </c>
       <c r="N2">
-        <v>0.0845752725748827</v>
+        <v>0.08487157225025733</v>
       </c>
       <c r="O2">
-        <v>0.07874459826632445</v>
+        <v>0.07906606442964209</v>
       </c>
       <c r="P2">
-        <v>0.07382093481090535</v>
+        <v>0.07416762462437733</v>
       </c>
       <c r="Q2">
-        <v>0.06963430801460972</v>
+        <v>0.07000640553199025</v>
       </c>
       <c r="R2">
-        <v>0.06605186973255842</v>
+        <v>0.06644966357573326</v>
       </c>
       <c r="S2">
-        <v>0.06296872899201537</v>
+        <v>0.06339259254680302</v>
       </c>
       <c r="T2">
-        <v>0.06030127915425162</v>
+        <v>0.06075165329448608</v>
       </c>
       <c r="U2">
-        <v>0.05798228536141757</v>
+        <v>0.0584596635174072</v>
       </c>
       <c r="V2">
-        <v>0.0559572284763265</v>
+        <v>0.0564621437926759</v>
       </c>
       <c r="W2">
-        <v>0.05418155617353676</v>
+        <v>0.05471457049074183</v>
       </c>
       <c r="X2">
-        <v>0.05261859603701477</v>
+        <v>0.05318029044858466</v>
       </c>
       <c r="Y2">
-        <v>0.05123795669091357</v>
+        <v>0.05182892345601175</v>
       </c>
       <c r="Z2">
-        <v>0.05001429217721889</v>
+        <v>0.05063512779936036</v>
       </c>
       <c r="AA2">
-        <v>0.04892633916807854</v>
+        <v>0.04957763847921907</v>
       </c>
       <c r="AB2">
-        <v>0.04795616087743595</v>
+        <v>0.04863851199218613</v>
       </c>
       <c r="AC2">
-        <v>0.04708854885473691</v>
+        <v>0.04780252888100221</v>
       </c>
       <c r="AD2">
-        <v>0.04631054631566681</v>
+        <v>0.04705671772592071</v>
       </c>
       <c r="AE2">
-        <v>0.0456110657286823</v>
+        <v>0.04638997331074494</v>
       </c>
       <c r="AF2">
-        <v>0.04498058001985231</v>
+        <v>0.04579274833796761</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -611,97 +611,97 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3342371379733692</v>
+        <v>0.3342371379733693</v>
       </c>
       <c r="C3">
         <v>0.260088410370062</v>
       </c>
       <c r="D3">
-        <v>0.2071233004671679</v>
+        <v>0.2071988856690195</v>
       </c>
       <c r="E3">
-        <v>0.1684171579570409</v>
+        <v>0.1685988992332998</v>
       </c>
       <c r="F3">
-        <v>0.1395403939831343</v>
+        <v>0.1398373038037591</v>
       </c>
       <c r="G3">
-        <v>0.1175887458386235</v>
+        <v>0.1179999452687123</v>
       </c>
       <c r="H3">
-        <v>0.1006143636260719</v>
+        <v>0.1011348798390907</v>
       </c>
       <c r="I3">
-        <v>0.08728327888852264</v>
+        <v>0.08790688382525838</v>
       </c>
       <c r="J3">
-        <v>0.07666416155096355</v>
+        <v>0.07738470940755944</v>
       </c>
       <c r="K3">
-        <v>0.06809511027281218</v>
+        <v>0.06890711454089171</v>
       </c>
       <c r="L3">
-        <v>0.06109789497298947</v>
+        <v>0.06199672529630982</v>
       </c>
       <c r="M3">
-        <v>0.05532167543433617</v>
+        <v>0.05630357047054822</v>
       </c>
       <c r="N3">
-        <v>0.05050539652209868</v>
+        <v>0.05156739383540461</v>
       </c>
       <c r="O3">
-        <v>0.04645223852373647</v>
+        <v>0.04759207292046957</v>
       </c>
       <c r="P3">
-        <v>0.04301198462923101</v>
+        <v>0.04422798038404777</v>
       </c>
       <c r="Q3">
-        <v>0.04006867298694929</v>
+        <v>0.04135964185082941</v>
       </c>
       <c r="R3">
-        <v>0.03753183019947177</v>
+        <v>0.03889698007978176</v>
       </c>
       <c r="S3">
-        <v>0.03533016692847401</v>
+        <v>0.03676902260361566</v>
       </c>
       <c r="T3">
-        <v>0.03340698898619276</v>
+        <v>0.03491932452476668</v>
       </c>
       <c r="U3">
-        <v>0.03171681890079167</v>
+        <v>0.03330260072213882</v>
       </c>
       <c r="V3">
-        <v>0.03022288184420498</v>
+        <v>0.0318822211146613</v>
       </c>
       <c r="W3">
-        <v>0.02889521575093897</v>
+        <v>0.0306283288077187</v>
       </c>
       <c r="X3">
-        <v>0.02770923700279299</v>
+        <v>0.02951641260273051</v>
       </c>
       <c r="Y3">
-        <v>0.02664464196626913</v>
+        <v>0.02852621430117399</v>
       </c>
       <c r="Z3">
-        <v>0.0256845584959303</v>
+        <v>0.02764088506595075</v>
       </c>
       <c r="AA3">
-        <v>0.02481488516844398</v>
+        <v>0.02684632874387874</v>
       </c>
       <c r="AB3">
-        <v>0.02402377272201115</v>
+        <v>0.02613068674636921</v>
       </c>
       <c r="AC3">
-        <v>0.02330121409879416</v>
+        <v>0.02548393099035202</v>
       </c>
       <c r="AD3">
-        <v>0.0226387180754771</v>
+        <v>0.024897539972188</v>
       </c>
       <c r="AE3">
-        <v>0.02202904770780394</v>
+        <v>0.02436423927317291</v>
       </c>
       <c r="AF3">
-        <v>0.02146600938894475</v>
+        <v>0.02387779235663146</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -715,91 +715,91 @@
         <v>0.3152491828189724</v>
       </c>
       <c r="D4">
-        <v>0.2911095397482588</v>
+        <v>0.2911999367259542</v>
       </c>
       <c r="E4">
-        <v>0.270522908400348</v>
+        <v>0.2707713005330272</v>
       </c>
       <c r="F4">
-        <v>0.2528321458218472</v>
+        <v>0.2532898549286803</v>
       </c>
       <c r="G4">
-        <v>0.2375215217319894</v>
+        <v>0.2382281290459123</v>
       </c>
       <c r="H4">
-        <v>0.2241824236864576</v>
+        <v>0.2251689533608774</v>
       </c>
       <c r="I4">
-        <v>0.2124882248955559</v>
+        <v>0.2137793970296631</v>
       </c>
       <c r="J4">
-        <v>0.2021756632645588</v>
+        <v>0.2037915002918561</v>
       </c>
       <c r="K4">
-        <v>0.1930309010406518</v>
+        <v>0.194987880677882</v>
       </c>
       <c r="L4">
-        <v>0.1848789858957489</v>
+        <v>0.1871908735519518</v>
       </c>
       <c r="M4">
-        <v>0.1775758093992376</v>
+        <v>0.1802542623724762</v>
       </c>
       <c r="N4">
-        <v>0.1710019170486913</v>
+        <v>0.1740569252402688</v>
       </c>
       <c r="O4">
-        <v>0.1650577037674301</v>
+        <v>0.1684979126773379</v>
       </c>
       <c r="P4">
-        <v>0.1596596552303355</v>
+        <v>0.1634926038364198</v>
       </c>
       <c r="Q4">
-        <v>0.1547373852440767</v>
+        <v>0.1589696821503255</v>
       </c>
       <c r="R4">
-        <v>0.1502312838864271</v>
+        <v>0.1548687386150391</v>
       </c>
       <c r="S4">
-        <v>0.1460906377969639</v>
+        <v>0.1511383594626137</v>
       </c>
       <c r="T4">
-        <v>0.1422721181118047</v>
+        <v>0.147734590390301</v>
       </c>
       <c r="U4">
-        <v>0.1387385566487037</v>
+        <v>0.1446196955494276</v>
       </c>
       <c r="V4">
-        <v>0.1354579495906501</v>
+        <v>0.1417611487956127</v>
       </c>
       <c r="W4">
-        <v>0.1324026418585843</v>
+        <v>0.1391308091144415</v>
       </c>
       <c r="X4">
-        <v>0.1295486558669871</v>
+        <v>0.1367042429790161</v>
       </c>
       <c r="Y4">
-        <v>0.1268751363230522</v>
+        <v>0.1344601646092227</v>
       </c>
       <c r="Z4">
-        <v>0.1243638888133869</v>
+        <v>0.1323799713660317</v>
       </c>
       <c r="AA4">
-        <v>0.1219989945966191</v>
+        <v>0.1304473563212057</v>
       </c>
       <c r="AB4">
-        <v>0.1197664876341297</v>
+        <v>0.1286479837547291</v>
       </c>
       <c r="AC4">
-        <v>0.1176540827014412</v>
+        <v>0.1269692162154972</v>
       </c>
       <c r="AD4">
-        <v>0.1156509456206161</v>
+        <v>0.125399884033027</v>
       </c>
       <c r="AE4">
-        <v>0.1137474983822457</v>
+        <v>0.1239300899368865</v>
       </c>
       <c r="AF4">
-        <v>0.1119352532917546</v>
+        <v>0.1225510428372184</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -813,91 +813,91 @@
         <v>0.4783134654375992</v>
       </c>
       <c r="D5">
-        <v>0.2776526380077221</v>
+        <v>0.2776770859035444</v>
       </c>
       <c r="E5">
-        <v>0.1701020019472491</v>
+        <v>0.170146280246948</v>
       </c>
       <c r="F5">
-        <v>0.1093947460459711</v>
+        <v>0.1094508718805244</v>
       </c>
       <c r="G5">
-        <v>0.07349499730220278</v>
+        <v>0.07355693587482</v>
       </c>
       <c r="H5">
-        <v>0.05135688774364216</v>
+        <v>0.05142087808123168</v>
       </c>
       <c r="I5">
-        <v>0.03718039341285498</v>
+        <v>0.03724432429934837</v>
       </c>
       <c r="J5">
-        <v>0.02778874117792403</v>
+        <v>0.02785154536898205</v>
       </c>
       <c r="K5">
-        <v>0.02137381565976681</v>
+        <v>0.02143504521821471</v>
       </c>
       <c r="L5">
-        <v>0.01686981482787856</v>
+        <v>0.01692937338335248</v>
       </c>
       <c r="M5">
-        <v>0.01362808098267887</v>
+        <v>0.01368606292410776</v>
       </c>
       <c r="N5">
-        <v>0.01124211829451742</v>
+        <v>0.01129871486670929</v>
       </c>
       <c r="O5">
-        <v>0.009450270608416758</v>
+        <v>0.009505716277687865</v>
       </c>
       <c r="P5">
-        <v>0.008079922338760199</v>
+        <v>0.008134464906664723</v>
       </c>
       <c r="Q5">
-        <v>0.007014596933722813</v>
+        <v>0.007068481471744051</v>
       </c>
       <c r="R5">
-        <v>0.006174047759146074</v>
+        <v>0.006227508491043953</v>
       </c>
       <c r="S5">
-        <v>0.005501918670964308</v>
+        <v>0.005555175356577828</v>
       </c>
       <c r="T5">
-        <v>0.004957924437185127</v>
+        <v>0.005011181247139003</v>
       </c>
       <c r="U5">
-        <v>0.004512792207007464</v>
+        <v>0.004566237922536168</v>
       </c>
       <c r="V5">
-        <v>0.004144925803088748</v>
+        <v>0.004198734671187423</v>
       </c>
       <c r="W5">
-        <v>0.003838166487000617</v>
+        <v>0.003892499351921601</v>
       </c>
       <c r="X5">
-        <v>0.003580264566870077</v>
+        <v>0.003635270069089406</v>
       </c>
       <c r="Y5">
-        <v>0.003361819863897556</v>
+        <v>0.003417635596691899</v>
       </c>
       <c r="Z5">
-        <v>0.003175536464404606</v>
+        <v>0.003232290035276443</v>
       </c>
       <c r="AA5">
-        <v>0.003015691356091563</v>
+        <v>0.003073501332655373</v>
       </c>
       <c r="AB5">
-        <v>0.002877750702726077</v>
+        <v>0.002936727440489192</v>
       </c>
       <c r="AC5">
-        <v>0.002758089398024581</v>
+        <v>0.002818335756792612</v>
       </c>
       <c r="AD5">
-        <v>0.002653783779664012</v>
+        <v>0.002715395739653867</v>
       </c>
       <c r="AE5">
-        <v>0.002562456783740611</v>
+        <v>0.00262552397402215</v>
       </c>
       <c r="AF5">
-        <v>0.002482161108973307</v>
+        <v>0.002546767260845404</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -908,94 +908,94 @@
         <v>0.7939057911269857</v>
       </c>
       <c r="C6">
-        <v>0.4617406340821548</v>
+        <v>0.4617406340821547</v>
       </c>
       <c r="D6">
-        <v>0.2831690297395741</v>
+        <v>0.2832319406419967</v>
       </c>
       <c r="E6">
-        <v>0.1821450400652392</v>
+        <v>0.182264685546604</v>
       </c>
       <c r="F6">
-        <v>0.1223059681671679</v>
+        <v>0.1224643462248166</v>
       </c>
       <c r="G6">
-        <v>0.08536460616056954</v>
+        <v>0.08554622934043461</v>
       </c>
       <c r="H6">
-        <v>0.06169285845028796</v>
+        <v>0.0618869800725082</v>
       </c>
       <c r="I6">
-        <v>0.04600584180965078</v>
+        <v>0.04620568508170357</v>
       </c>
       <c r="J6">
-        <v>0.03529041527899252</v>
+        <v>0.03549198948272284</v>
       </c>
       <c r="K6">
-        <v>0.02776811221026126</v>
+        <v>0.0279692453362502</v>
       </c>
       <c r="L6">
-        <v>0.02235546663130542</v>
+        <v>0.0225551287375013</v>
       </c>
       <c r="M6">
-        <v>0.01837302331041646</v>
+        <v>0.0185708823182319</v>
       </c>
       <c r="N6">
-        <v>0.01538322739336339</v>
+        <v>0.01557936639648592</v>
       </c>
       <c r="O6">
-        <v>0.01309735355152278</v>
+        <v>0.0132920940358124</v>
       </c>
       <c r="P6">
-        <v>0.01132056730132083</v>
+        <v>0.01151435992576719</v>
       </c>
       <c r="Q6">
-        <v>0.009918652028607066</v>
+        <v>0.01011200990074312</v>
       </c>
       <c r="R6">
-        <v>0.008797372938021899</v>
+        <v>0.008990831408635273</v>
       </c>
       <c r="S6">
-        <v>0.007889393311056949</v>
+        <v>0.008083486229950249</v>
       </c>
       <c r="T6">
-        <v>0.007145807596040324</v>
+        <v>0.007341053731665818</v>
       </c>
       <c r="U6">
-        <v>0.006530556914500316</v>
+        <v>0.006727452605162361</v>
       </c>
       <c r="V6">
-        <v>0.006016679834241545</v>
+        <v>0.006215695419131373</v>
       </c>
       <c r="W6">
-        <v>0.005583753304419699</v>
+        <v>0.00578533180884854</v>
       </c>
       <c r="X6">
-        <v>0.005216118753428713</v>
+        <v>0.005420675882292816</v>
       </c>
       <c r="Y6">
-        <v>0.004901634549861928</v>
+        <v>0.005109559406579123</v>
       </c>
       <c r="Z6">
-        <v>0.004630786681319762</v>
+        <v>0.004842442857168464</v>
       </c>
       <c r="AA6">
-        <v>0.004396046687741748</v>
+        <v>0.004611773509148217</v>
       </c>
       <c r="AB6">
-        <v>0.004191402539492767</v>
+        <v>0.004411516349860514</v>
       </c>
       <c r="AC6">
-        <v>0.004012012004270996</v>
+        <v>0.004236807412184324</v>
       </c>
       <c r="AD6">
-        <v>0.00385394379442867</v>
+        <v>0.004083694853930517</v>
       </c>
       <c r="AE6">
-        <v>0.003713982323682349</v>
+        <v>0.003948943632690304</v>
       </c>
       <c r="AF6">
-        <v>0.003589479043862256</v>
+        <v>0.003829886758638846</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1009,91 +1009,91 @@
         <v>0.8942357844094723</v>
       </c>
       <c r="D7">
-        <v>0.8303038119193575</v>
+        <v>0.8327389713630148</v>
       </c>
       <c r="E7">
-        <v>0.7647209549573929</v>
+        <v>0.7713697488293241</v>
       </c>
       <c r="F7">
-        <v>0.6993525980373217</v>
+        <v>0.7113861755403548</v>
       </c>
       <c r="G7">
-        <v>0.6356484008704479</v>
+        <v>0.6537105587904168</v>
       </c>
       <c r="H7">
-        <v>0.5746776095563983</v>
+        <v>0.5989788205222542</v>
       </c>
       <c r="I7">
-        <v>0.517177890196136</v>
+        <v>0.5475912692055928</v>
       </c>
       <c r="J7">
-        <v>0.4636095105921601</v>
+        <v>0.4997606843523553</v>
       </c>
       <c r="K7">
-        <v>0.4142091694611617</v>
+        <v>0.4555553807493081</v>
       </c>
       <c r="L7">
-        <v>0.3690398634506856</v>
+        <v>0.4149361946209035</v>
       </c>
       <c r="M7">
-        <v>0.3280348098706842</v>
+        <v>0.3777871933301196</v>
       </c>
       <c r="N7">
-        <v>0.2910346215329885</v>
+        <v>0.343940442327241</v>
       </c>
       <c r="O7">
-        <v>0.25781772210145</v>
+        <v>0.3131954543988935</v>
       </c>
       <c r="P7">
-        <v>0.2281244761957746</v>
+        <v>0.2853340712562381</v>
       </c>
       <c r="Q7">
-        <v>0.2016757676265138</v>
+        <v>0.2601315449734208</v>
       </c>
       <c r="R7">
-        <v>0.1781868607677958</v>
+        <v>0.2373645403868775</v>
       </c>
       <c r="S7">
-        <v>0.1573773796308376</v>
+        <v>0.2168166998879645</v>
       </c>
       <c r="T7">
-        <v>0.1389781783071111</v>
+        <v>0.1982823193592138</v>
       </c>
       <c r="U7">
-        <v>0.1227357846149989</v>
+        <v>0.1815685909085824</v>
       </c>
       <c r="V7">
-        <v>0.1084149957520054</v>
+        <v>0.1664967817050431</v>
       </c>
       <c r="W7">
-        <v>0.09580010287437545</v>
+        <v>0.1529026421163741</v>
       </c>
       <c r="X7">
-        <v>0.08469512783413762</v>
+        <v>0.1406362716678923</v>
       </c>
       <c r="Y7">
-        <v>0.07492337321106125</v>
+        <v>0.1295616178588605</v>
       </c>
       <c r="Z7">
-        <v>0.06632651735163805</v>
+        <v>0.1195557396173889</v>
       </c>
       <c r="AA7">
-        <v>0.05876342902260149</v>
+        <v>0.1105079328316181</v>
       </c>
       <c r="AB7">
-        <v>0.05210883038454722</v>
+        <v>0.1023187885673884</v>
       </c>
       <c r="AC7">
-        <v>0.04625190082611621</v>
+        <v>0.09489923393506054</v>
       </c>
       <c r="AD7">
-        <v>0.04109488622260628</v>
+        <v>0.08816958990182609</v>
       </c>
       <c r="AE7">
-        <v>0.03655175691813338</v>
+        <v>0.08205866862822857</v>
       </c>
       <c r="AF7">
-        <v>0.03254694185256889</v>
+        <v>0.07650292427549461</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -1107,91 +1107,91 @@
         <v>0.4920265379592854</v>
       </c>
       <c r="D8">
-        <v>0.3886574040669247</v>
+        <v>0.3895203652620947</v>
       </c>
       <c r="E8">
-        <v>0.3106580985488169</v>
+        <v>0.3127015021392251</v>
       </c>
       <c r="F8">
-        <v>0.2510114116412576</v>
+        <v>0.2542756295518861</v>
       </c>
       <c r="G8">
-        <v>0.2048331608254077</v>
+        <v>0.2092261363480231</v>
       </c>
       <c r="H8">
-        <v>0.1686719869460557</v>
+        <v>0.1740465018565941</v>
       </c>
       <c r="I8">
-        <v>0.1400543064549803</v>
+        <v>0.1462483361177231</v>
       </c>
       <c r="J8">
-        <v>0.1171837126605442</v>
+        <v>0.1240405766700172</v>
       </c>
       <c r="K8">
-        <v>0.0987393342112293</v>
+        <v>0.1061168655643404</v>
       </c>
       <c r="L8">
-        <v>0.08373860964969294</v>
+        <v>0.09151245633104138</v>
       </c>
       <c r="M8">
-        <v>0.0714426240689895</v>
+        <v>0.07950651930442455</v>
       </c>
       <c r="N8">
-        <v>0.06128996662661924</v>
+        <v>0.06955453258524151</v>
       </c>
       <c r="O8">
-        <v>0.05284995535990783</v>
+        <v>0.06124089226648599</v>
       </c>
       <c r="P8">
-        <v>0.04578917955117074</v>
+        <v>0.05424529225947639</v>
       </c>
       <c r="Q8">
-        <v>0.03984730896224076</v>
+        <v>0.04831859954788394</v>
       </c>
       <c r="R8">
-        <v>0.03481942417364313</v>
+        <v>0.04326535548929874</v>
       </c>
       <c r="S8">
-        <v>0.03054298495831841</v>
+        <v>0.03893095308258074</v>
       </c>
       <c r="T8">
-        <v>0.02688813088149224</v>
+        <v>0.03519214937096199</v>
       </c>
       <c r="U8">
-        <v>0.02375039904120689</v>
+        <v>0.0319499808069823</v>
       </c>
       <c r="V8">
-        <v>0.02104521122760669</v>
+        <v>0.02912442666341702</v>
       </c>
       <c r="W8">
-        <v>0.01870366764012532</v>
+        <v>0.02665035574173088</v>
       </c>
       <c r="X8">
-        <v>0.01666931338965319</v>
+        <v>0.02447442342173442</v>
       </c>
       <c r="Y8">
-        <v>0.01489563500901464</v>
+        <v>0.02255267833946354</v>
       </c>
       <c r="Z8">
-        <v>0.01334410892008633</v>
+        <v>0.02084870315454749</v>
       </c>
       <c r="AA8">
-        <v>0.01198267024199821</v>
+        <v>0.01933216033354897</v>
       </c>
       <c r="AB8">
-        <v>0.01078450391485313</v>
+        <v>0.01797764728893014</v>
       </c>
       <c r="AC8">
-        <v>0.009727084602869324</v>
+        <v>0.01676378943932811</v>
       </c>
       <c r="AD8">
-        <v>0.008791409830314751</v>
+        <v>0.01567251746069784</v>
       </c>
       <c r="AE8">
-        <v>0.007961384113948667</v>
+        <v>0.01468848803349645</v>
       </c>
       <c r="AF8">
-        <v>0.007223321772298389</v>
+        <v>0.01379861705906328</v>
       </c>
     </row>
     <row r="9" spans="1:32">
@@ -1199,97 +1199,97 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4895249003151677</v>
+        <v>0.4895249003151675</v>
       </c>
       <c r="C9">
-        <v>0.3533422012297993</v>
+        <v>0.3533422012297992</v>
       </c>
       <c r="D9">
-        <v>0.2630756125633629</v>
+        <v>0.2631537884485309</v>
       </c>
       <c r="E9">
-        <v>0.2014156916696258</v>
+        <v>0.20159266839651</v>
       </c>
       <c r="F9">
-        <v>0.1581358933602313</v>
+        <v>0.1584098415650809</v>
       </c>
       <c r="G9">
-        <v>0.1270015580903819</v>
+        <v>0.1273630962021264</v>
       </c>
       <c r="H9">
-        <v>0.1041008424264748</v>
+        <v>0.1045391908243807</v>
       </c>
       <c r="I9">
-        <v>0.08691376403629233</v>
+        <v>0.08741909838204449</v>
       </c>
       <c r="J9">
-        <v>0.07377719340246881</v>
+        <v>0.07434136857975422</v>
       </c>
       <c r="K9">
-        <v>0.06356879143615739</v>
+        <v>0.06418539589101679</v>
       </c>
       <c r="L9">
-        <v>0.0555154679661579</v>
+        <v>0.05617963064518391</v>
       </c>
       <c r="M9">
-        <v>0.0490745281541957</v>
+        <v>0.04978265941899236</v>
       </c>
       <c r="N9">
-        <v>0.04385828875550473</v>
+        <v>0.04460782870794631</v>
       </c>
       <c r="O9">
-        <v>0.03958528223835678</v>
+        <v>0.04037448211053415</v>
       </c>
       <c r="P9">
-        <v>0.0360480673619847</v>
+        <v>0.03687580920086096</v>
       </c>
       <c r="Q9">
-        <v>0.03309161660632143</v>
+        <v>0.03395726843081967</v>
       </c>
       <c r="R9">
-        <v>0.03059856419035469</v>
+        <v>0.03150186522689623</v>
       </c>
       <c r="S9">
-        <v>0.02847898076110037</v>
+        <v>0.02941995110595908</v>
       </c>
       <c r="T9">
-        <v>0.02666318294126831</v>
+        <v>0.02764205261615094</v>
       </c>
       <c r="U9">
-        <v>0.02509660829516452</v>
+        <v>0.02611376152175909</v>
       </c>
       <c r="V9">
-        <v>0.02373611586975772</v>
+        <v>0.02479204722711762</v>
       </c>
       <c r="W9">
-        <v>0.02254728379040804</v>
+        <v>0.02364256364246095</v>
       </c>
       <c r="X9">
-        <v>0.02150241294227036</v>
+        <v>0.02263766011178167</v>
       </c>
       <c r="Y9">
-        <v>0.02057903658639547</v>
+        <v>0.02175489671634781</v>
       </c>
       <c r="Z9">
-        <v>0.01975879653425893</v>
+        <v>0.02097592493745333</v>
       </c>
       <c r="AA9">
-        <v>0.01902658769522939</v>
+        <v>0.02028563576863885</v>
       </c>
       <c r="AB9">
-        <v>0.01836990106731715</v>
+        <v>0.01967150555773567</v>
       </c>
       <c r="AC9">
-        <v>0.01777831484678018</v>
+        <v>0.01912308941381591</v>
       </c>
       <c r="AD9">
-        <v>0.01724309708321634</v>
+        <v>0.01863162572674994</v>
       </c>
       <c r="AE9">
-        <v>0.01675689305129283</v>
+        <v>0.01818972506252419</v>
       </c>
       <c r="AF9">
-        <v>0.01631347748331118</v>
+        <v>0.01779112364861222</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -1300,94 +1300,94 @@
         <v>1.142341997113088</v>
       </c>
       <c r="C10">
-        <v>0.8084302649704124</v>
+        <v>0.8084302649704131</v>
       </c>
       <c r="D10">
-        <v>0.5938732448224586</v>
+        <v>0.5935707242951178</v>
       </c>
       <c r="E10">
-        <v>0.4511413165458269</v>
+        <v>0.4504623291088227</v>
       </c>
       <c r="F10">
-        <v>0.3532042400672315</v>
+        <v>0.352157382397226</v>
       </c>
       <c r="G10">
-        <v>0.2841240798799742</v>
+        <v>0.2827423551589043</v>
       </c>
       <c r="H10">
-        <v>0.2341888204080394</v>
+        <v>0.2325073130452108</v>
       </c>
       <c r="I10">
-        <v>0.1972999257440223</v>
+        <v>0.1953480838943558</v>
       </c>
       <c r="J10">
-        <v>0.1695214066615748</v>
+        <v>0.1673211598077988</v>
       </c>
       <c r="K10">
-        <v>0.1482484114930869</v>
+        <v>0.1458144751498816</v>
       </c>
       <c r="L10">
-        <v>0.1317169150784918</v>
+        <v>0.129057783061964</v>
       </c>
       <c r="M10">
-        <v>0.1187067945598274</v>
+        <v>0.1158258268582203</v>
       </c>
       <c r="N10">
-        <v>0.108357558342579</v>
+        <v>0.1052539541161987</v>
       </c>
       <c r="O10">
-        <v>0.1000513666892388</v>
+        <v>0.09672096821689864</v>
       </c>
       <c r="P10">
-        <v>0.09333719499275131</v>
+        <v>0.08977312832073223</v>
       </c>
       <c r="Q10">
-        <v>0.08788070233022628</v>
+        <v>0.08407387974202873</v>
       </c>
       <c r="R10">
-        <v>0.08343048699552552</v>
+        <v>0.07936999941235552</v>
       </c>
       <c r="S10">
-        <v>0.07979498660259102</v>
+        <v>0.07546841105588133</v>
       </c>
       <c r="T10">
-        <v>0.07682641486275463</v>
+        <v>0.07222005760322708</v>
       </c>
       <c r="U10">
-        <v>0.07440942682562071</v>
+        <v>0.06950851815194976</v>
       </c>
       <c r="V10">
-        <v>0.0724530106113587</v>
+        <v>0.06724186368234704</v>
       </c>
       <c r="W10">
-        <v>0.07088461261328688</v>
+        <v>0.06534675545095044</v>
       </c>
       <c r="X10">
-        <v>0.06964582975221104</v>
+        <v>0.06376411727625624</v>
       </c>
       <c r="Y10">
-        <v>0.06868921521407795</v>
+        <v>0.06244592634905204</v>
       </c>
       <c r="Z10">
-        <v>0.06797588485348777</v>
+        <v>0.06135280839714499</v>
       </c>
       <c r="AA10">
-        <v>0.06747370580719364</v>
+        <v>0.06045221773856224</v>
       </c>
       <c r="AB10">
-        <v>0.0671559129495215</v>
+        <v>0.05971704710470381</v>
       </c>
       <c r="AC10">
-        <v>0.06700004288597421</v>
+        <v>0.05912455637460478</v>
       </c>
       <c r="AD10">
-        <v>0.06698710583254688</v>
+        <v>0.05865554015927404</v>
       </c>
       <c r="AE10">
-        <v>0.06710093728573324</v>
+        <v>0.05829367584235571</v>
       </c>
       <c r="AF10">
-        <v>0.06732768670934987</v>
+        <v>0.05802500908680235</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -1401,91 +1401,91 @@
         <v>0.4042959484233923</v>
       </c>
       <c r="D11">
-        <v>0.3682702575648054</v>
+        <v>0.3682976159030951</v>
       </c>
       <c r="E11">
-        <v>0.3384668938024719</v>
+        <v>0.3385412257049313</v>
       </c>
       <c r="F11">
-        <v>0.3135899993493986</v>
+        <v>0.3137257361214691</v>
       </c>
       <c r="G11">
-        <v>0.2926559682067203</v>
+        <v>0.2928640425728089</v>
       </c>
       <c r="H11">
-        <v>0.2749091206873008</v>
+        <v>0.275198088158254</v>
       </c>
       <c r="I11">
-        <v>0.2597623060175801</v>
+        <v>0.2601390973701931</v>
       </c>
       <c r="J11">
-        <v>0.2467544950381159</v>
+        <v>0.2472249245435166</v>
       </c>
       <c r="K11">
-        <v>0.2355201172287749</v>
+        <v>0.2360892273628648</v>
       </c>
       <c r="L11">
-        <v>0.2257666242307974</v>
+        <v>0.2264389198394771</v>
       </c>
       <c r="M11">
-        <v>0.2172578880230247</v>
+        <v>0.2180374951213791</v>
       </c>
       <c r="N11">
-        <v>0.2098017861992673</v>
+        <v>0.2106925590316647</v>
       </c>
       <c r="O11">
-        <v>0.2032408254633141</v>
+        <v>0.2042464178599092</v>
       </c>
       <c r="P11">
-        <v>0.1974449928537514</v>
+        <v>0.1985689048726644</v>
       </c>
       <c r="Q11">
-        <v>0.1923062566344811</v>
+        <v>0.1935518640878343</v>
       </c>
       <c r="R11">
-        <v>0.1877343002610052</v>
+        <v>0.1891048724203617</v>
       </c>
       <c r="S11">
-        <v>0.1836531862382045</v>
+        <v>0.1851518954357863</v>
       </c>
       <c r="T11">
-        <v>0.1799987271554292</v>
+        <v>0.1816286529041402</v>
       </c>
       <c r="U11">
-        <v>0.1767163988450371</v>
+        <v>0.1784805283363933</v>
       </c>
       <c r="V11">
-        <v>0.1737596723119563</v>
+        <v>0.1756608986126221</v>
       </c>
       <c r="W11">
-        <v>0.1710886715087986</v>
+        <v>0.1731297903938435</v>
       </c>
       <c r="X11">
-        <v>0.1686690864189284</v>
+        <v>0.1708527925059742</v>
       </c>
       <c r="Y11">
-        <v>0.1664712875149137</v>
+        <v>0.1688001701658273</v>
       </c>
       <c r="Z11">
-        <v>0.1644696000698445</v>
+        <v>0.1669461393833653</v>
       </c>
       <c r="AA11">
-        <v>0.1626417061414568</v>
+        <v>0.1652682692557342</v>
       </c>
       <c r="AB11">
-        <v>0.1609681491310252</v>
+        <v>0.1637469869786861</v>
       </c>
       <c r="AC11">
-        <v>0.1594319212231129</v>
+        <v>0.1623651658255776</v>
       </c>
       <c r="AD11">
-        <v>0.1580181181622044</v>
+        <v>0.1611077805090908</v>
       </c>
       <c r="AE11">
-        <v>0.1567136490284128</v>
+        <v>0.1599616175581113</v>
       </c>
       <c r="AF11">
-        <v>0.1555069911658969</v>
+        <v>0.1589150308419465</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -1496,94 +1496,94 @@
         <v>0.4920378988480285</v>
       </c>
       <c r="C12">
-        <v>0.4047685500301599</v>
+        <v>0.4047685500301598</v>
       </c>
       <c r="D12">
-        <v>0.3385542790618402</v>
+        <v>0.3387379167168047</v>
       </c>
       <c r="E12">
-        <v>0.2874481922625625</v>
+        <v>0.2879093269664189</v>
       </c>
       <c r="F12">
-        <v>0.247381424037575</v>
+        <v>0.2481641384075007</v>
       </c>
       <c r="G12">
-        <v>0.215516449510974</v>
+        <v>0.2166374946442542</v>
       </c>
       <c r="H12">
-        <v>0.1898392466035994</v>
+        <v>0.1913007262294958</v>
       </c>
       <c r="I12">
-        <v>0.1688967703472943</v>
+        <v>0.1706933219962833</v>
       </c>
       <c r="J12">
-        <v>0.1516247133366566</v>
+        <v>0.1537475528325712</v>
       </c>
       <c r="K12">
-        <v>0.1372324758767923</v>
+        <v>0.1396716400967357</v>
       </c>
       <c r="L12">
-        <v>0.1251250584340814</v>
+        <v>0.1278706092165268</v>
       </c>
       <c r="M12">
-        <v>0.1148491959704694</v>
+        <v>0.117891825783926</v>
       </c>
       <c r="N12">
-        <v>0.1060556668425167</v>
+        <v>0.1093869627633486</v>
       </c>
       <c r="O12">
-        <v>0.09847255780173028</v>
+        <v>0.1020850739528523</v>
       </c>
       <c r="P12">
-        <v>0.0918860563064102</v>
+        <v>0.0957732827790793</v>
       </c>
       <c r="Q12">
-        <v>0.08612648389041022</v>
+        <v>0.09028276359374938</v>
       </c>
       <c r="R12">
-        <v>0.08105802488862213</v>
+        <v>0.08547844810850024</v>
       </c>
       <c r="S12">
-        <v>0.07657109174792287</v>
+        <v>0.081251385323627</v>
       </c>
       <c r="T12">
-        <v>0.07257659268037112</v>
+        <v>0.07751301305626097</v>
       </c>
       <c r="U12">
-        <v>0.06900158649339576</v>
+        <v>0.07419082137327671</v>
       </c>
       <c r="V12">
-        <v>0.06578595912740731</v>
+        <v>0.07122503980420394</v>
       </c>
       <c r="W12">
-        <v>0.06287985990000468</v>
+        <v>0.0685660848056987</v>
       </c>
       <c r="X12">
-        <v>0.06024170775662567</v>
+        <v>0.06617257692750797</v>
       </c>
       <c r="Y12">
-        <v>0.05783662887450949</v>
+        <v>0.06400978858234711</v>
       </c>
       <c r="Z12">
-        <v>0.05563522336427706</v>
+        <v>0.06204841995978075</v>
       </c>
       <c r="AA12">
-        <v>0.05361258500950329</v>
+        <v>0.06026362696014114</v>
       </c>
       <c r="AB12">
-        <v>0.0517475170073736</v>
+        <v>0.05863424412626775</v>
       </c>
       <c r="AC12">
-        <v>0.05002190060506635</v>
+        <v>0.05714215952473754</v>
       </c>
       <c r="AD12">
-        <v>0.04842018381253432</v>
+        <v>0.05577180883470999</v>
       </c>
       <c r="AE12">
-        <v>0.04692896502586733</v>
+        <v>0.05450976356356824</v>
       </c>
       <c r="AF12">
-        <v>0.04553665213249364</v>
+        <v>0.05334439404580407</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -1591,97 +1591,97 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5528235542392856</v>
+        <v>0.5528235542392858</v>
       </c>
       <c r="C13">
         <v>0.4784334037231907</v>
       </c>
       <c r="D13">
-        <v>0.4137892438215526</v>
+        <v>0.4149526102030281</v>
       </c>
       <c r="E13">
-        <v>0.3577495748763253</v>
+        <v>0.3607309350859669</v>
       </c>
       <c r="F13">
-        <v>0.3092626882943879</v>
+        <v>0.3143624022920387</v>
       </c>
       <c r="G13">
-        <v>0.2673737410888565</v>
+        <v>0.2746530827366082</v>
       </c>
       <c r="H13">
-        <v>0.2312258978805267</v>
+        <v>0.240591575595589</v>
       </c>
       <c r="I13">
-        <v>0.2000574661470993</v>
+        <v>0.2113225704051345</v>
       </c>
       <c r="J13">
-        <v>0.1731964839844088</v>
+        <v>0.1861235622818962</v>
       </c>
       <c r="K13">
-        <v>0.1500538369509596</v>
+        <v>0.1643846017939476</v>
       </c>
       <c r="L13">
-        <v>0.1301156759782335</v>
+        <v>0.1455908534984897</v>
       </c>
       <c r="M13">
-        <v>0.1129356721008885</v>
+        <v>0.1293076852632736</v>
       </c>
       <c r="N13">
-        <v>0.0981274648181777</v>
+        <v>0.1151679944655194</v>
       </c>
       <c r="O13">
-        <v>0.08535752840385294</v>
+        <v>0.1028614832279793</v>
       </c>
       <c r="P13">
-        <v>0.07433858465918318</v>
+        <v>0.09212561359926176</v>
       </c>
       <c r="Q13">
-        <v>0.06482362308012679</v>
+        <v>0.08273799876052874</v>
       </c>
       <c r="R13">
-        <v>0.05660054327848968</v>
+        <v>0.07451001391437674</v>
       </c>
       <c r="S13">
-        <v>0.0494874042216694</v>
+        <v>0.06728143799483084</v>
       </c>
       <c r="T13">
-        <v>0.04332824610092025</v>
+        <v>0.06091596328383288</v>
       </c>
       <c r="U13">
-        <v>0.03798944007648072</v>
+        <v>0.05529743367371354</v>
       </c>
       <c r="V13">
-        <v>0.03335651627127857</v>
+        <v>0.05032669336521312</v>
       </c>
       <c r="W13">
-        <v>0.02933141933493844</v>
+        <v>0.04591894619984001</v>
       </c>
       <c r="X13">
-        <v>0.02583014232297231</v>
+        <v>0.04200154171783868</v>
       </c>
       <c r="Y13">
-        <v>0.02278069256421649</v>
+        <v>0.03851211761873109</v>
       </c>
       <c r="Z13">
-        <v>0.02012134694421768</v>
+        <v>0.03539703982787082</v>
       </c>
       <c r="AA13">
-        <v>0.01779915814908327</v>
+        <v>0.03261009109502525</v>
       </c>
       <c r="AB13">
-        <v>0.01576867758527086</v>
+        <v>0.03011136721516069</v>
       </c>
       <c r="AC13">
-        <v>0.01399086472005399</v>
+        <v>0.0278663467934711</v>
       </c>
       <c r="AD13">
-        <v>0.0124321563582929</v>
+        <v>0.02584510617869065</v>
       </c>
       <c r="AE13">
-        <v>0.01106367282177128</v>
+        <v>0.02402165593846087</v>
       </c>
       <c r="AF13">
-        <v>0.009860541102830292</v>
+        <v>0.0223733792015125</v>
       </c>
     </row>
   </sheetData>
